--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -660,7 +660,7 @@
     <t>A specific code indicating type of service provided</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|5.0.0</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -678,7 +678,7 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(HealthcareService)
+    <t xml:space="preserve">CodeableReference(HealthcareService|5.0.0)
 </t>
   </si>
   <si>
@@ -691,7 +691,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|5.0.0</t>
   </si>
   <si>
     <t>n/a</t>
@@ -747,13 +747,13 @@
     <t>Current status of the subject  within the encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-subject-status</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-subject-status|5.0.0</t>
   </si>
   <si>
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|5.0.0)
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|MedicationRequest|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|DeviceRequest|5.0.0|MedicationRequest|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -795,7 +795,7 @@
     <t>Encounter.careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam)
+    <t xml:space="preserve">Reference(CareTeam|5.0.0)
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -832,7 +832,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|5.0.0</t>
   </si>
   <si>
     <t>enc-1
@@ -982,7 +982,7 @@
     <t>Encounter.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|RelatedPerson|Practitioner|PractitionerRole|Device|HealthcareService)
+    <t xml:space="preserve">Reference(Patient|5.0.0|Group|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0|Device|5.0.0|HealthcareService|5.0.0)
 </t>
   </si>
   <si>
@@ -1013,7 +1013,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|5.0.0)
 </t>
   </si>
   <si>
@@ -1222,7 +1222,7 @@
     <t>What the reason value should be used as e.g. Chief Complaint, Health Concern, Health Maintenance (including screening).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason-use</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason-use|5.0.0</t>
   </si>
   <si>
     <t>Encounter.reason.value</t>
@@ -1232,7 +1232,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition|DiagnosticReport|Observation|ImmunizationRecommendation|Procedure)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0|DiagnosticReport|5.0.0|Observation|5.0.0|ImmunizationRecommendation|5.0.0|Procedure|5.0.0)
 </t>
   </si>
   <si>
@@ -1245,7 +1245,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|5.0.0</t>
   </si>
   <si>
     <t>Event.reason</t>
@@ -1291,7 +1291,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0)
 </t>
   </si>
   <si>
@@ -1301,7 +1301,7 @@
     <t>The coded diagnosis or a reference to a Condition (with other resources referenced in the evidence.detail), the use property will indicate the purpose of this specific diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].target</t>
@@ -1322,7 +1322,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diagnosis-use</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diagnosis-use|5.0.0</t>
   </si>
   <si>
     <t>DG1-6 (Diagnosis Type)</t>
@@ -1331,7 +1331,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|5.0.0)
 </t>
   </si>
   <si>
@@ -1365,7 +1365,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|5.0.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1386,7 +1386,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|5.0.0</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1414,7 +1414,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|5.0.0</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1466,7 +1466,7 @@
     <t>Encounter.admission.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|5.0.0|Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1575,7 +1575,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|5.0.0)
 </t>
   </si>
   <si>
@@ -1631,7 +1631,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-form</t>
+    <t>http://hl7.org/fhir/ValueSet/location-form|5.0.0</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1979,7 +1979,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="108.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1994,7 +1994,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -2939,7 +2936,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2954,13 +2951,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2999,17 +2996,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3021,7 +3018,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3038,20 +3035,20 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3066,13 +3063,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3123,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3135,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3152,20 +3149,20 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3180,13 +3177,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3237,7 +3234,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3249,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -3266,20 +3263,20 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3294,13 +3291,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3351,7 +3348,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3363,7 +3360,7 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3380,20 +3377,20 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -3408,13 +3405,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3465,7 +3462,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3477,7 +3474,7 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3494,14 +3491,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3520,19 +3517,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3581,7 +3578,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3593,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
@@ -3610,10 +3607,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3636,13 +3633,13 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3693,7 +3690,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3708,24 +3705,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3751,13 +3748,13 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3786,11 +3783,11 @@
         <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3822,24 +3819,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>179</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3862,13 +3859,13 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3880,29 +3877,29 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3937,21 +3934,21 @@
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3974,13 +3971,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4007,14 +4004,14 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
       </c>
@@ -4031,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4049,21 +4046,21 @@
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4086,16 +4083,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4121,14 +4118,14 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
       </c>
@@ -4145,7 +4142,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4160,24 +4157,24 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4200,13 +4197,13 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4233,14 +4230,14 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4257,7 +4254,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4272,28 +4269,28 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4312,16 +4309,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4371,7 +4368,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4386,24 +4383,24 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4426,16 +4423,16 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4461,14 +4458,14 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4485,7 +4482,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4514,10 +4511,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4540,13 +4537,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4597,7 +4594,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4615,25 +4612,25 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4652,13 +4649,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4709,7 +4706,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4724,13 +4721,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
@@ -4738,10 +4735,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4764,13 +4761,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4821,7 +4818,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4842,7 +4839,7 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4850,10 +4847,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4876,16 +4873,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4935,7 +4932,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4950,13 +4947,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4964,10 +4961,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4990,13 +4987,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5047,7 +5044,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5062,24 +5059,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5102,16 +5099,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5161,7 +5158,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5173,27 +5170,27 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5216,13 +5213,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5273,7 +5270,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5282,7 +5279,7 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>20</v>
@@ -5294,7 +5291,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5302,14 +5299,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5328,16 +5325,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5387,7 +5384,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5399,7 +5396,7 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5408,7 +5405,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5416,14 +5413,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5442,19 +5439,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N31" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5503,7 +5500,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5515,7 +5512,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -5532,10 +5529,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5558,16 +5555,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5593,14 +5590,14 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5617,7 +5614,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5626,30 +5623,30 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5672,13 +5669,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5729,7 +5726,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5750,18 +5747,18 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5784,16 +5781,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5843,7 +5840,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5852,30 +5849,30 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5898,13 +5895,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5955,7 +5952,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5970,24 +5967,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6010,16 +6007,16 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6069,7 +6066,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6098,10 +6095,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6124,16 +6121,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6183,7 +6180,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6198,24 +6195,24 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6241,10 +6238,10 @@
         <v>90</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6295,7 +6292,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6304,7 +6301,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>20</v>
@@ -6316,7 +6313,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6324,14 +6321,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6350,16 +6347,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N39" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6397,19 +6394,19 @@
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AC39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6421,7 +6418,7 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -6430,7 +6427,7 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6438,10 +6435,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6464,16 +6461,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6523,7 +6520,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6532,7 +6529,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6544,18 +6541,18 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6578,68 +6575,68 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6648,7 +6645,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6660,18 +6657,18 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6694,13 +6691,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6751,7 +6748,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6775,15 +6772,15 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6806,13 +6803,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6863,7 +6860,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6887,15 +6884,15 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6918,16 +6915,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6977,7 +6974,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6992,24 +6989,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7032,16 +7029,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7091,7 +7088,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7120,10 +7117,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7146,13 +7143,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7203,7 +7200,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7212,7 +7209,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>20</v>
@@ -7224,7 +7221,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7232,14 +7229,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7258,16 +7255,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7317,7 +7314,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7329,7 +7326,7 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7338,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7346,14 +7343,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7372,19 +7369,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N48" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7433,7 +7430,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7445,7 +7442,7 @@
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7462,10 +7459,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7488,13 +7485,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7521,11 +7518,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7543,7 +7540,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7572,14 +7569,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7598,13 +7595,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7631,14 +7628,14 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7655,7 +7652,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7670,24 +7667,24 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7710,16 +7707,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7769,7 +7766,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7790,7 +7787,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -7798,10 +7795,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7824,13 +7821,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7881,7 +7878,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7890,7 +7887,7 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>20</v>
@@ -7902,7 +7899,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -7910,14 +7907,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7936,16 +7933,16 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7995,7 +7992,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8007,7 +8004,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8016,7 +8013,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8024,14 +8021,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8050,19 +8047,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N54" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8111,7 +8108,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8123,7 +8120,7 @@
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8140,14 +8137,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8166,13 +8163,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8199,11 +8196,11 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8221,7 +8218,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8236,24 +8233,24 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AM55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8276,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8309,14 +8306,14 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8333,7 +8330,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8354,18 +8351,18 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8388,16 +8385,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8447,7 +8444,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8468,7 +8465,7 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
@@ -8476,10 +8473,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8502,19 +8499,19 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8539,14 +8536,14 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8563,7 +8560,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8584,18 +8581,18 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8618,13 +8615,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8651,14 +8648,14 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8675,7 +8672,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8696,18 +8693,18 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8730,16 +8727,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8765,14 +8762,14 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8789,7 +8786,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8810,18 +8807,18 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8844,16 +8841,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8903,7 +8900,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8924,7 +8921,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -8932,10 +8929,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8958,13 +8955,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9015,7 +9012,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9024,7 +9021,7 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>20</v>
@@ -9036,7 +9033,7 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -9044,14 +9041,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9070,16 +9067,16 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9129,7 +9126,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9141,7 +9138,7 @@
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9150,7 +9147,7 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -9158,14 +9155,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9184,19 +9181,19 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9245,7 +9242,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9257,7 +9254,7 @@
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
@@ -9274,10 +9271,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9300,13 +9297,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9357,7 +9354,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9378,18 +9375,18 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9412,13 +9409,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9469,7 +9466,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9490,7 +9487,7 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>20</v>
@@ -9498,10 +9495,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9524,13 +9521,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9561,7 +9558,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -9579,7 +9576,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9600,18 +9597,18 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9634,13 +9631,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9667,14 +9664,14 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
       </c>
@@ -9691,7 +9688,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9712,18 +9709,18 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9746,13 +9743,13 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9803,7 +9800,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9824,18 +9821,18 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9858,13 +9855,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9895,7 +9892,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -9913,7 +9910,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9934,18 +9931,18 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9968,16 +9965,16 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10027,7 +10024,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10048,7 +10045,7 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
@@ -10056,10 +10053,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10082,13 +10079,13 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10139,7 +10136,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10148,7 +10145,7 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>20</v>
@@ -10160,7 +10157,7 @@
         <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>20</v>
@@ -10168,14 +10165,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10194,16 +10191,16 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10253,7 +10250,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10265,7 +10262,7 @@
         <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>20</v>
@@ -10274,7 +10271,7 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>20</v>
@@ -10282,14 +10279,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10308,19 +10305,19 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10369,7 +10366,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10381,7 +10378,7 @@
         <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>20</v>
@@ -10398,10 +10395,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10424,13 +10421,13 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10481,7 +10478,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>88</v>
@@ -10496,24 +10493,24 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10539,13 +10536,13 @@
         <v>108</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10574,11 +10571,11 @@
         <v>112</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>500</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
       </c>
@@ -10595,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10616,7 +10613,7 @@
         <v>20</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>20</v>
@@ -10624,10 +10621,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10650,16 +10647,16 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10685,14 +10682,14 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
       </c>
@@ -10709,7 +10706,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10738,10 +10735,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10764,13 +10761,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10821,7 +10818,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10842,7 +10839,7 @@
         <v>20</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6906,7 +6906,7 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3033,7 +3033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>148</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>151</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>169</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>179</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>198</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>216</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>322</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>333</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>342</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>439</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>456</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>473</v>
       </c>
@@ -10847,12 +10847,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN78">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-encounter-profile.xlsx
+++ b/StructureDefinition-stroke-encounter-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
